--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC14583-1AF7-6F49-B73F-E28277363507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81DC2A7-4256-1446-848F-D83EDC738922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="-5820" windowWidth="25600" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="572">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I220" sqref="I220"/>
+      <selection pane="bottomRight" activeCell="P172" sqref="P172:S172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11556,10 +11556,18 @@
         <v>307</v>
       </c>
       <c r="O172" s="34"/>
-      <c r="P172" s="34"/>
-      <c r="Q172" s="34"/>
-      <c r="R172" s="34"/>
-      <c r="S172" s="34"/>
+      <c r="P172" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q172" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="R172" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="S172" s="74" t="s">
+        <v>495</v>
+      </c>
       <c r="T172" s="74" t="s">
         <v>305</v>
       </c>
@@ -17469,7 +17477,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J10:J32 M10:N32 P10:R32 M197:N219 P197:R219 M50:N50 J50 P50:R50 J52:J149 M52:N149 P52:R149 P172:R195 M173:N195 J173:J195 J197:J219</xm:sqref>
+          <xm:sqref>J34 M34:N34 P34:R34 J36:J40 M36:N40 P36:R40 J42 M42:N42 P42:R42 J44:J48 M44:N48 P44:R48 J10:J32 M10:N32 P10:R32 M197:N219 P197:R219 M50:N50 J50 P50:R50 J52:J149 M52:N149 P52:R149 J197:J219 M173:N195 J173:J195 P173:R195</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -19728,27 +19736,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20006,10 +19993,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20032,20 +20051,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81DC2A7-4256-1446-848F-D83EDC738922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E7DCC-5500-6D4D-8359-316F92E6D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="572">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4639,10 +4639,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N153" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P172" sqref="P172:S172"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5115,7 +5115,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>6</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>7</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>8</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>9</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>29</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="37" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>31</v>
       </c>
@@ -5896,8 +5896,12 @@
       <c r="P35" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
+      <c r="Q35" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="R35" s="74" t="s">
+        <v>87</v>
+      </c>
       <c r="S35" s="74" t="s">
         <v>495</v>
       </c>
@@ -6058,7 +6062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>37</v>
       </c>
@@ -6210,8 +6214,12 @@
       <c r="P43" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
+      <c r="Q43" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="R43" s="74" t="s">
+        <v>87</v>
+      </c>
       <c r="S43" s="74" t="s">
         <v>495</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>45</v>
       </c>
@@ -6511,7 +6519,9 @@
       <c r="G51" s="78"/>
       <c r="H51" s="73"/>
       <c r="I51" s="73"/>
-      <c r="J51" s="74"/>
+      <c r="J51" s="74" t="s">
+        <v>87</v>
+      </c>
       <c r="K51" s="74"/>
       <c r="L51" s="74"/>
       <c r="M51" s="74" t="s">
@@ -7070,7 +7080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29">
         <v>63</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29">
         <v>64</v>
       </c>
@@ -7144,7 +7154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29">
         <v>65</v>
       </c>
@@ -7181,7 +7191,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29">
         <v>66</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29">
         <v>67</v>
       </c>
@@ -7255,7 +7265,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29">
         <v>68</v>
       </c>
@@ -7292,7 +7302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29">
         <v>69</v>
       </c>
@@ -7329,7 +7339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29">
         <v>70</v>
       </c>
@@ -7366,7 +7376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29">
         <v>71</v>
       </c>
@@ -7403,7 +7413,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29">
         <v>72</v>
       </c>
@@ -7440,7 +7450,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29">
         <v>73</v>
       </c>
@@ -7477,7 +7487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29">
         <v>74</v>
       </c>
@@ -12288,7 +12298,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="29">
         <v>369</v>
       </c>
@@ -13079,7 +13089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="61">
         <v>442</v>
       </c>
@@ -13227,7 +13237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A217" s="61">
         <v>446</v>
       </c>
@@ -17453,6 +17463,7 @@
   <autoFilter ref="A9:W219" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="LDO"/>
         <filter val="RSA"/>
       </filters>
     </filterColumn>
@@ -19736,6 +19747,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -19993,18 +20016,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20015,6 +20026,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20033,23 +20061,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E7DCC-5500-6D4D-8359-316F92E6D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA949739-EA4B-4A4A-9D28-C84A0317EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="573">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1947,15 +1947,9 @@
     <t>Technology Health Systems Group S.r.l.</t>
   </si>
   <si>
-    <t>aa655b6456acba4d</t>
-  </si>
-  <si>
     <t>Referto salvato come da reinviare</t>
   </si>
   <si>
-    <t>1d67d46854be184c</t>
-  </si>
-  <si>
     <t>Timeout invio dati per validazione</t>
   </si>
   <si>
@@ -1971,9 +1965,6 @@
     <t>21/01/2025T09:42:21Z</t>
   </si>
   <si>
-    <t>14/01/2025T00:00:00Z</t>
-  </si>
-  <si>
     <t>21/01/2025T09:44:34Z</t>
   </si>
   <si>
@@ -2179,6 +2170,18 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.6539efe6c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0cea42a83cb3ab02</t>
+  </si>
+  <si>
+    <t>20/02/2025T08:37:18</t>
+  </si>
+  <si>
+    <t>cdb06fc5db0712e0</t>
+  </si>
+  <si>
+    <t>20/02/2025T08:39:35</t>
   </si>
 </sst>
 </file>
@@ -4639,10 +4642,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5872,13 +5875,13 @@
         <v>66</v>
       </c>
       <c r="F35" s="71">
-        <v>45671</v>
+        <v>45708</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="I35" s="73"/>
       <c r="J35" s="74" t="s">
@@ -5903,7 +5906,7 @@
         <v>87</v>
       </c>
       <c r="S35" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T35" s="74" t="s">
         <v>305</v>
@@ -6190,13 +6193,13 @@
         <v>78</v>
       </c>
       <c r="F43" s="71">
-        <v>45671</v>
+        <v>45708</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="I43" s="73"/>
       <c r="J43" s="74" t="s">
@@ -6221,7 +6224,7 @@
         <v>87</v>
       </c>
       <c r="S43" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T43" s="74" t="s">
         <v>305</v>
@@ -6531,7 +6534,7 @@
         <v>307</v>
       </c>
       <c r="O51" s="74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="P51" s="74" t="s">
         <v>87</v>
@@ -6543,7 +6546,7 @@
         <v>87</v>
       </c>
       <c r="S51" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T51" s="74" t="s">
         <v>305</v>
@@ -10208,13 +10211,13 @@
         <v>45678</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J150" s="74" t="s">
         <v>87</v>
@@ -10259,13 +10262,13 @@
         <v>45678</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10310,13 +10313,13 @@
         <v>45678</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -10361,13 +10364,13 @@
         <v>45678</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J153" s="74" t="s">
         <v>87</v>
@@ -10412,13 +10415,13 @@
         <v>45678</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J154" s="74" t="s">
         <v>87</v>
@@ -10442,7 +10445,7 @@
         <v>87</v>
       </c>
       <c r="S154" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T154" s="74" t="s">
         <v>305</v>
@@ -10475,13 +10478,13 @@
         <v>45678</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J155" s="74" t="s">
         <v>87</v>
@@ -10505,7 +10508,7 @@
         <v>87</v>
       </c>
       <c r="S155" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T155" s="74" t="s">
         <v>305</v>
@@ -10538,13 +10541,13 @@
         <v>45678</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I156" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J156" s="74" t="s">
         <v>87</v>
@@ -10568,7 +10571,7 @@
         <v>87</v>
       </c>
       <c r="S156" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T156" s="74" t="s">
         <v>305</v>
@@ -10601,13 +10604,13 @@
         <v>45678</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="J157" s="74" t="s">
         <v>87</v>
@@ -10631,7 +10634,7 @@
         <v>87</v>
       </c>
       <c r="S157" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T157" s="74" t="s">
         <v>305</v>
@@ -10664,13 +10667,13 @@
         <v>45678</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="J158" s="74" t="s">
         <v>87</v>
@@ -10694,7 +10697,7 @@
         <v>87</v>
       </c>
       <c r="S158" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T158" s="74" t="s">
         <v>305</v>
@@ -10727,13 +10730,13 @@
         <v>45678</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="J159" s="74" t="s">
         <v>87</v>
@@ -10757,7 +10760,7 @@
         <v>87</v>
       </c>
       <c r="S159" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T159" s="74" t="s">
         <v>305</v>
@@ -10790,13 +10793,13 @@
         <v>45678</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J160" s="74" t="s">
         <v>87</v>
@@ -10820,7 +10823,7 @@
         <v>87</v>
       </c>
       <c r="S160" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T160" s="74" t="s">
         <v>305</v>
@@ -10853,13 +10856,13 @@
         <v>45678</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="J161" s="74" t="s">
         <v>87</v>
@@ -10883,7 +10886,7 @@
         <v>87</v>
       </c>
       <c r="S161" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T161" s="74" t="s">
         <v>305</v>
@@ -10916,13 +10919,13 @@
         <v>45678</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J162" s="74" t="s">
         <v>87</v>
@@ -10946,7 +10949,7 @@
         <v>87</v>
       </c>
       <c r="S162" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T162" s="74" t="s">
         <v>305</v>
@@ -10979,13 +10982,13 @@
         <v>45678</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="J163" s="74" t="s">
         <v>87</v>
@@ -11009,7 +11012,7 @@
         <v>87</v>
       </c>
       <c r="S163" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T163" s="74" t="s">
         <v>305</v>
@@ -11042,13 +11045,13 @@
         <v>45678</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J164" s="74" t="s">
         <v>87</v>
@@ -11072,7 +11075,7 @@
         <v>87</v>
       </c>
       <c r="S164" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T164" s="74" t="s">
         <v>305</v>
@@ -11105,13 +11108,13 @@
         <v>45678</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J165" s="74" t="s">
         <v>87</v>
@@ -11135,7 +11138,7 @@
         <v>87</v>
       </c>
       <c r="S165" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T165" s="74" t="s">
         <v>305</v>
@@ -11168,13 +11171,13 @@
         <v>45678</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J166" s="74" t="s">
         <v>87</v>
@@ -11198,7 +11201,7 @@
         <v>87</v>
       </c>
       <c r="S166" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T166" s="74" t="s">
         <v>305</v>
@@ -11231,13 +11234,13 @@
         <v>45678</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J167" s="74" t="s">
         <v>87</v>
@@ -11261,7 +11264,7 @@
         <v>87</v>
       </c>
       <c r="S167" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T167" s="74" t="s">
         <v>305</v>
@@ -11294,13 +11297,13 @@
         <v>45678</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J168" s="74" t="s">
         <v>87</v>
@@ -11324,7 +11327,7 @@
         <v>87</v>
       </c>
       <c r="S168" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T168" s="74" t="s">
         <v>305</v>
@@ -11357,13 +11360,13 @@
         <v>45678</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="J169" s="74" t="s">
         <v>87</v>
@@ -11387,7 +11390,7 @@
         <v>87</v>
       </c>
       <c r="S169" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T169" s="74" t="s">
         <v>305</v>
@@ -11420,13 +11423,13 @@
         <v>45678</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="J170" s="74" t="s">
         <v>87</v>
@@ -11450,7 +11453,7 @@
         <v>87</v>
       </c>
       <c r="S170" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T170" s="74" t="s">
         <v>305</v>
@@ -11483,13 +11486,13 @@
         <v>45678</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J171" s="74" t="s">
         <v>87</v>
@@ -11513,7 +11516,7 @@
         <v>87</v>
       </c>
       <c r="S171" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T171" s="74" t="s">
         <v>305</v>
@@ -11546,13 +11549,13 @@
         <v>45678</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J172" s="74" t="s">
         <v>87</v>
@@ -11576,7 +11579,7 @@
         <v>87</v>
       </c>
       <c r="S172" s="74" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="T172" s="74" t="s">
         <v>305</v>
@@ -11608,10 +11611,10 @@
       <c r="F173" s="32"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J173" s="34"/>
       <c r="K173" s="34"/>
@@ -11649,7 +11652,7 @@
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="34"/>
@@ -12466,13 +12469,13 @@
         <v>45678</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I196" s="33" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -13089,7 +13092,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="61">
         <v>442</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="61">
         <v>446</v>
       </c>
@@ -19747,15 +19750,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20017,27 +20017,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20062,9 +20056,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA949739-EA4B-4A4A-9D28-C84A0317EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0FD4D5-F256-FE44-ABC1-AACB72FA8212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="575">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1953,18 +1953,6 @@
     <t>Timeout invio dati per validazione</t>
   </si>
   <si>
-    <t>21/01/2025T09:44:01Z</t>
-  </si>
-  <si>
-    <t>21/01/2025T09:43:29Z</t>
-  </si>
-  <si>
-    <t>21/01/2025T09:42:54Z</t>
-  </si>
-  <si>
-    <t>21/01/2025T09:42:21Z</t>
-  </si>
-  <si>
     <t>21/01/2025T09:44:34Z</t>
   </si>
   <si>
@@ -2022,18 +2010,6 @@
     <t>21/01/2025T09:54:22Z</t>
   </si>
   <si>
-    <t>21/01/2025T09:54:55Z</t>
-  </si>
-  <si>
-    <t>59ab101a92c5c3b7</t>
-  </si>
-  <si>
-    <t>46f4e37b444c9c3d</t>
-  </si>
-  <si>
-    <t>4c30da70cbfeb532</t>
-  </si>
-  <si>
     <t>3f1c7009967889f9</t>
   </si>
   <si>
@@ -2100,18 +2076,6 @@
     <t>51a304258c3a220a</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.ac113382af^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.8aafc80e06^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.0aeb131c04^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.95b2e99337^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.17f27af011^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -2182,6 +2146,48 @@
   </si>
   <si>
     <t>20/02/2025T08:39:35</t>
+  </si>
+  <si>
+    <t>5a5bb97a819dc60c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.0c23072608^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ba61ed1c00e8f72d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.847e61b627^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>28/02/2025T10:27:37Z</t>
+  </si>
+  <si>
+    <t>28/02/2025T10:29:45Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.58a31d2e33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>28/02/2025T10:30:53Z</t>
+  </si>
+  <si>
+    <t>072e78aa2b4b0812</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.d986f04d54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>28/02/2025T10:31:40Z</t>
+  </si>
+  <si>
+    <t>c21fe34566e0d749</t>
+  </si>
+  <si>
+    <t>28/02/2025T10:32:35Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.7ec9eb0e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4642,10 +4648,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomRight" activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5878,10 +5884,10 @@
         <v>45708</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="I35" s="73"/>
       <c r="J35" s="74" t="s">
@@ -6196,10 +6202,10 @@
         <v>45708</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="I43" s="73"/>
       <c r="J43" s="74" t="s">
@@ -10208,16 +10214,16 @@
         <v>450</v>
       </c>
       <c r="F150" s="32">
-        <v>45678</v>
+        <v>45716</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="J150" s="74" t="s">
         <v>87</v>
@@ -10259,16 +10265,16 @@
         <v>451</v>
       </c>
       <c r="F151" s="32">
-        <v>45678</v>
+        <v>45716</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10309,17 +10315,14 @@
       <c r="E152" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="F152" s="32">
-        <v>45678</v>
-      </c>
       <c r="G152" s="33" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -10361,16 +10364,16 @@
         <v>453</v>
       </c>
       <c r="F153" s="32">
-        <v>45678</v>
+        <v>45716</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="J153" s="74" t="s">
         <v>87</v>
@@ -10415,13 +10418,13 @@
         <v>45678</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="J154" s="74" t="s">
         <v>87</v>
@@ -10478,13 +10481,13 @@
         <v>45678</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="J155" s="74" t="s">
         <v>87</v>
@@ -10541,13 +10544,13 @@
         <v>45678</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="I156" s="33" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="J156" s="74" t="s">
         <v>87</v>
@@ -10604,13 +10607,13 @@
         <v>45678</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="J157" s="74" t="s">
         <v>87</v>
@@ -10667,13 +10670,13 @@
         <v>45678</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="J158" s="74" t="s">
         <v>87</v>
@@ -10730,13 +10733,13 @@
         <v>45678</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="J159" s="74" t="s">
         <v>87</v>
@@ -10793,13 +10796,13 @@
         <v>45678</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="J160" s="74" t="s">
         <v>87</v>
@@ -10856,13 +10859,13 @@
         <v>45678</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="J161" s="74" t="s">
         <v>87</v>
@@ -10919,13 +10922,13 @@
         <v>45678</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="J162" s="74" t="s">
         <v>87</v>
@@ -10982,13 +10985,13 @@
         <v>45678</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="J163" s="74" t="s">
         <v>87</v>
@@ -11045,13 +11048,13 @@
         <v>45678</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="J164" s="74" t="s">
         <v>87</v>
@@ -11108,13 +11111,13 @@
         <v>45678</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="J165" s="74" t="s">
         <v>87</v>
@@ -11171,13 +11174,13 @@
         <v>45678</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="J166" s="74" t="s">
         <v>87</v>
@@ -11234,13 +11237,13 @@
         <v>45678</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="J167" s="74" t="s">
         <v>87</v>
@@ -11297,13 +11300,13 @@
         <v>45678</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="J168" s="74" t="s">
         <v>87</v>
@@ -11360,13 +11363,13 @@
         <v>45678</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="J169" s="74" t="s">
         <v>87</v>
@@ -11423,13 +11426,13 @@
         <v>45678</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="J170" s="74" t="s">
         <v>87</v>
@@ -11486,13 +11489,13 @@
         <v>45678</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="J171" s="74" t="s">
         <v>87</v>
@@ -11549,13 +11552,13 @@
         <v>45678</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="J172" s="74" t="s">
         <v>87</v>
@@ -11611,10 +11614,10 @@
       <c r="F173" s="32"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="J173" s="34"/>
       <c r="K173" s="34"/>
@@ -11652,7 +11655,7 @@
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="34"/>
@@ -12466,16 +12469,16 @@
         <v>482</v>
       </c>
       <c r="F196" s="32">
-        <v>45678</v>
+        <v>45716</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>519</v>
+        <v>573</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="I196" s="33" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -19750,12 +19753,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20017,21 +20023,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20056,18 +20068,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA949739-EA4B-4A4A-9D28-C84A0317EF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27E7DCC-5500-6D4D-8359-316F92E6D981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="572">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1947,9 +1947,15 @@
     <t>Technology Health Systems Group S.r.l.</t>
   </si>
   <si>
+    <t>aa655b6456acba4d</t>
+  </si>
+  <si>
     <t>Referto salvato come da reinviare</t>
   </si>
   <si>
+    <t>1d67d46854be184c</t>
+  </si>
+  <si>
     <t>Timeout invio dati per validazione</t>
   </si>
   <si>
@@ -1965,6 +1971,9 @@
     <t>21/01/2025T09:42:21Z</t>
   </si>
   <si>
+    <t>14/01/2025T00:00:00Z</t>
+  </si>
+  <si>
     <t>21/01/2025T09:44:34Z</t>
   </si>
   <si>
@@ -2170,18 +2179,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.6539efe6c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0cea42a83cb3ab02</t>
-  </si>
-  <si>
-    <t>20/02/2025T08:37:18</t>
-  </si>
-  <si>
-    <t>cdb06fc5db0712e0</t>
-  </si>
-  <si>
-    <t>20/02/2025T08:39:35</t>
   </si>
 </sst>
 </file>
@@ -4642,10 +4639,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5875,13 +5872,13 @@
         <v>66</v>
       </c>
       <c r="F35" s="71">
-        <v>45708</v>
+        <v>45671</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="I35" s="73"/>
       <c r="J35" s="74" t="s">
@@ -5906,7 +5903,7 @@
         <v>87</v>
       </c>
       <c r="S35" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T35" s="74" t="s">
         <v>305</v>
@@ -6193,13 +6190,13 @@
         <v>78</v>
       </c>
       <c r="F43" s="71">
-        <v>45708</v>
+        <v>45671</v>
       </c>
       <c r="G43" s="72" t="s">
-        <v>572</v>
+        <v>502</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>571</v>
+        <v>496</v>
       </c>
       <c r="I43" s="73"/>
       <c r="J43" s="74" t="s">
@@ -6224,7 +6221,7 @@
         <v>87</v>
       </c>
       <c r="S43" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T43" s="74" t="s">
         <v>305</v>
@@ -6534,7 +6531,7 @@
         <v>307</v>
       </c>
       <c r="O51" s="74" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P51" s="74" t="s">
         <v>87</v>
@@ -6546,7 +6543,7 @@
         <v>87</v>
       </c>
       <c r="S51" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T51" s="74" t="s">
         <v>305</v>
@@ -10211,13 +10208,13 @@
         <v>45678</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="J150" s="74" t="s">
         <v>87</v>
@@ -10262,13 +10259,13 @@
         <v>45678</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10313,13 +10310,13 @@
         <v>45678</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -10364,13 +10361,13 @@
         <v>45678</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H153" s="33" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="J153" s="74" t="s">
         <v>87</v>
@@ -10415,13 +10412,13 @@
         <v>45678</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H154" s="33" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="I154" s="33" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="J154" s="74" t="s">
         <v>87</v>
@@ -10445,7 +10442,7 @@
         <v>87</v>
       </c>
       <c r="S154" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T154" s="74" t="s">
         <v>305</v>
@@ -10478,13 +10475,13 @@
         <v>45678</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H155" s="33" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I155" s="33" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="J155" s="74" t="s">
         <v>87</v>
@@ -10508,7 +10505,7 @@
         <v>87</v>
       </c>
       <c r="S155" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T155" s="74" t="s">
         <v>305</v>
@@ -10541,13 +10538,13 @@
         <v>45678</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H156" s="33" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="I156" s="33" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J156" s="74" t="s">
         <v>87</v>
@@ -10571,7 +10568,7 @@
         <v>87</v>
       </c>
       <c r="S156" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T156" s="74" t="s">
         <v>305</v>
@@ -10604,13 +10601,13 @@
         <v>45678</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="I157" s="33" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J157" s="74" t="s">
         <v>87</v>
@@ -10634,7 +10631,7 @@
         <v>87</v>
       </c>
       <c r="S157" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T157" s="74" t="s">
         <v>305</v>
@@ -10667,13 +10664,13 @@
         <v>45678</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H158" s="33" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I158" s="33" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J158" s="74" t="s">
         <v>87</v>
@@ -10697,7 +10694,7 @@
         <v>87</v>
       </c>
       <c r="S158" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T158" s="74" t="s">
         <v>305</v>
@@ -10730,13 +10727,13 @@
         <v>45678</v>
       </c>
       <c r="G159" s="33" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H159" s="33" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I159" s="33" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="J159" s="74" t="s">
         <v>87</v>
@@ -10760,7 +10757,7 @@
         <v>87</v>
       </c>
       <c r="S159" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T159" s="74" t="s">
         <v>305</v>
@@ -10793,13 +10790,13 @@
         <v>45678</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I160" s="33" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J160" s="74" t="s">
         <v>87</v>
@@ -10823,7 +10820,7 @@
         <v>87</v>
       </c>
       <c r="S160" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T160" s="74" t="s">
         <v>305</v>
@@ -10856,13 +10853,13 @@
         <v>45678</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="I161" s="33" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J161" s="74" t="s">
         <v>87</v>
@@ -10886,7 +10883,7 @@
         <v>87</v>
       </c>
       <c r="S161" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T161" s="74" t="s">
         <v>305</v>
@@ -10919,13 +10916,13 @@
         <v>45678</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I162" s="33" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="J162" s="74" t="s">
         <v>87</v>
@@ -10949,7 +10946,7 @@
         <v>87</v>
       </c>
       <c r="S162" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T162" s="74" t="s">
         <v>305</v>
@@ -10982,13 +10979,13 @@
         <v>45678</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I163" s="33" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="J163" s="74" t="s">
         <v>87</v>
@@ -11012,7 +11009,7 @@
         <v>87</v>
       </c>
       <c r="S163" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T163" s="74" t="s">
         <v>305</v>
@@ -11045,13 +11042,13 @@
         <v>45678</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I164" s="33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J164" s="74" t="s">
         <v>87</v>
@@ -11075,7 +11072,7 @@
         <v>87</v>
       </c>
       <c r="S164" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T164" s="74" t="s">
         <v>305</v>
@@ -11108,13 +11105,13 @@
         <v>45678</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H165" s="33" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="I165" s="33" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="J165" s="74" t="s">
         <v>87</v>
@@ -11138,7 +11135,7 @@
         <v>87</v>
       </c>
       <c r="S165" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T165" s="74" t="s">
         <v>305</v>
@@ -11171,13 +11168,13 @@
         <v>45678</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="H166" s="33" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I166" s="33" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J166" s="74" t="s">
         <v>87</v>
@@ -11201,7 +11198,7 @@
         <v>87</v>
       </c>
       <c r="S166" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T166" s="74" t="s">
         <v>305</v>
@@ -11234,13 +11231,13 @@
         <v>45678</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H167" s="33" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I167" s="33" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="J167" s="74" t="s">
         <v>87</v>
@@ -11264,7 +11261,7 @@
         <v>87</v>
       </c>
       <c r="S167" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T167" s="74" t="s">
         <v>305</v>
@@ -11297,13 +11294,13 @@
         <v>45678</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="I168" s="33" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J168" s="74" t="s">
         <v>87</v>
@@ -11327,7 +11324,7 @@
         <v>87</v>
       </c>
       <c r="S168" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T168" s="74" t="s">
         <v>305</v>
@@ -11360,13 +11357,13 @@
         <v>45678</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I169" s="33" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="J169" s="74" t="s">
         <v>87</v>
@@ -11390,7 +11387,7 @@
         <v>87</v>
       </c>
       <c r="S169" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T169" s="74" t="s">
         <v>305</v>
@@ -11423,13 +11420,13 @@
         <v>45678</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="I170" s="33" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="J170" s="74" t="s">
         <v>87</v>
@@ -11453,7 +11450,7 @@
         <v>87</v>
       </c>
       <c r="S170" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T170" s="74" t="s">
         <v>305</v>
@@ -11486,13 +11483,13 @@
         <v>45678</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I171" s="33" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J171" s="74" t="s">
         <v>87</v>
@@ -11516,7 +11513,7 @@
         <v>87</v>
       </c>
       <c r="S171" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T171" s="74" t="s">
         <v>305</v>
@@ -11549,13 +11546,13 @@
         <v>45678</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H172" s="33" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I172" s="33" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="J172" s="74" t="s">
         <v>87</v>
@@ -11579,7 +11576,7 @@
         <v>87</v>
       </c>
       <c r="S172" s="74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="T172" s="74" t="s">
         <v>305</v>
@@ -11611,10 +11608,10 @@
       <c r="F173" s="32"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I173" s="33" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="J173" s="34"/>
       <c r="K173" s="34"/>
@@ -11652,7 +11649,7 @@
       <c r="F174" s="32"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="34"/>
@@ -12469,13 +12466,13 @@
         <v>45678</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I196" s="33" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -13092,7 +13089,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="11" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A213" s="61">
         <v>442</v>
       </c>
@@ -13240,7 +13237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A217" s="61">
         <v>446</v>
       </c>
@@ -19750,12 +19747,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20017,21 +20017,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20056,18 +20062,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0FD4D5-F256-FE44-ABC1-AACB72FA8212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32396C0E-3FCC-DD47-AC26-B3128A61A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4648,10 +4648,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I220" sqref="I220"/>
+      <selection pane="bottomRight" activeCell="A152" sqref="A152:XFD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10314,6 +10314,9 @@
       </c>
       <c r="E152" s="31" t="s">
         <v>452</v>
+      </c>
+      <c r="F152" s="32">
+        <v>45716</v>
       </c>
       <c r="G152" s="33" t="s">
         <v>568</v>
@@ -19753,15 +19756,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20023,27 +20023,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20068,9 +20062,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32396C0E-3FCC-DD47-AC26-B3128A61A165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D9FDF6-ACB0-9349-87A2-4895182D94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5820" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="576">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2188,6 +2188,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.7ec9eb0e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4648,10 +4651,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="A152:XFD152"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4803,7 +4806,9 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79"/>
+      <c r="A6" s="79" t="s">
+        <v>575</v>
+      </c>
       <c r="B6" s="80"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
@@ -19756,12 +19761,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20023,21 +20031,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20062,18 +20076,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D9FDF6-ACB0-9349-87A2-4895182D94EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337CFBFC-6947-C343-8895-38DA7E9BF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="575">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2188,9 +2188,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.7ec9eb0e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4654,7 +4651,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4806,9 +4803,7 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
-        <v>575</v>
-      </c>
+      <c r="A6" s="79"/>
       <c r="B6" s="80"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
@@ -19761,15 +19756,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20031,27 +20023,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20076,9 +20062,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337CFBFC-6947-C343-8895-38DA7E9BF382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D0220-BA6C-2F49-BF2D-B4E2B5D712E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2148,12 +2148,6 @@
     <t>20/02/2025T08:39:35</t>
   </si>
   <si>
-    <t>5a5bb97a819dc60c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.0c23072608^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>ba61ed1c00e8f72d</t>
   </si>
   <si>
@@ -2188,6 +2182,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.7ec9eb0e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.124c2c5cd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>62d2ab31a731f99b</t>
   </si>
 </sst>
 </file>
@@ -4648,10 +4648,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10217,13 +10217,13 @@
         <v>45716</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="J150" s="74" t="s">
         <v>87</v>
@@ -10268,13 +10268,13 @@
         <v>45716</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10319,13 +10319,13 @@
         <v>45716</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -10370,13 +10370,13 @@
         <v>45716</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H153" s="33" t="s">
         <v>515</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J153" s="74" t="s">
         <v>87</v>
@@ -12475,13 +12475,13 @@
         <v>45716</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H196" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="I196" s="33" t="s">
         <v>572</v>
-      </c>
-      <c r="I196" s="33" t="s">
-        <v>574</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -19765,6 +19765,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20022,18 +20034,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
@@ -20043,6 +20043,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20059,21 +20076,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D0220-BA6C-2F49-BF2D-B4E2B5D712E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A233D-6AA2-104D-B05A-93F03770C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="573">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2148,46 +2148,40 @@
     <t>20/02/2025T08:39:35</t>
   </si>
   <si>
-    <t>ba61ed1c00e8f72d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.847e61b627^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>28/02/2025T10:27:37Z</t>
   </si>
   <si>
-    <t>28/02/2025T10:29:45Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.58a31d2e33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>28/02/2025T10:30:53Z</t>
-  </si>
-  <si>
-    <t>072e78aa2b4b0812</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.d986f04d54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>28/02/2025T10:31:40Z</t>
   </si>
   <si>
-    <t>c21fe34566e0d749</t>
-  </si>
-  <si>
-    <t>28/02/2025T10:32:35Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.7ec9eb0e9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.124c2c5cd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>62d2ab31a731f99b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.7ea73d015c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f91ed66fdf4afb02</t>
+  </si>
+  <si>
+    <t>31/03/2025T09:18:06Z</t>
+  </si>
+  <si>
+    <t>83ceec89776109ac</t>
+  </si>
+  <si>
+    <t>31/03/2025T09:23:46Z</t>
+  </si>
+  <si>
+    <t>7a17fa6e56d51c2e</t>
+  </si>
+  <si>
+    <t>31/03/2025T09:26:44Z</t>
   </si>
 </sst>
 </file>
@@ -4648,10 +4642,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H150" sqref="H150"/>
+      <selection pane="bottomRight" activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10217,13 +10211,13 @@
         <v>45716</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="I150" s="33" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="J150" s="74" t="s">
         <v>87</v>
@@ -10265,16 +10259,16 @@
         <v>451</v>
       </c>
       <c r="F151" s="32">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10316,16 +10310,16 @@
         <v>452</v>
       </c>
       <c r="F152" s="32">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="G152" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="H152" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="I152" s="33" t="s">
         <v>566</v>
-      </c>
-      <c r="H152" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="I152" s="33" t="s">
-        <v>565</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -10370,13 +10364,13 @@
         <v>45716</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H153" s="33" t="s">
         <v>515</v>
       </c>
       <c r="I153" s="33" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="J153" s="74" t="s">
         <v>87</v>
@@ -12472,16 +12466,16 @@
         <v>482</v>
       </c>
       <c r="F196" s="32">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="G196" s="33" t="s">
+        <v>572</v>
+      </c>
+      <c r="H196" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="H196" s="33" t="s">
-        <v>570</v>
-      </c>
       <c r="I196" s="33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -19756,27 +19750,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20034,10 +20007,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20060,20 +20065,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A233D-6AA2-104D-B05A-93F03770C04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99C2C1-AEF2-864D-8653-D774CED5996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$219</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="574">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2166,12 +2166,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.7ea73d015c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>f91ed66fdf4afb02</t>
-  </si>
-  <si>
-    <t>31/03/2025T09:18:06Z</t>
-  </si>
-  <si>
     <t>83ceec89776109ac</t>
   </si>
   <si>
@@ -2182,6 +2176,15 @@
   </si>
   <si>
     <t>31/03/2025T09:26:44Z</t>
+  </si>
+  <si>
+    <t>50c491c405701913</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.f8812d2723^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>01/04/2025T11:59:07Z</t>
   </si>
 </sst>
 </file>
@@ -4642,10 +4645,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G220" sqref="G220"/>
+      <selection pane="bottomRight" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10259,16 +10262,16 @@
         <v>451</v>
       </c>
       <c r="F151" s="32">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10313,10 +10316,10 @@
         <v>45747</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I152" s="33" t="s">
         <v>566</v>
@@ -12469,10 +12472,10 @@
         <v>45747</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I196" s="33" t="s">
         <v>566</v>
@@ -19750,6 +19753,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20007,18 +20022,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -20029,6 +20032,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EEA2CD4-B321-4AF0-BAC8-6887893E697D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20047,23 +20067,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
+++ b/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/costaa/Clienti/Salutis/FSE/it-fse-accreditamento/GATEWAY/S1#111#TECHNOLOGYHEALTHSYSTEMSGROUPSRLXX/ths/salutis/1.2.7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A99C2C1-AEF2-864D-8653-D774CED5996C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DD5D35-BC27-BE40-BAF8-6F4737F9FBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="575">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2163,21 +2163,6 @@
     <t>62d2ab31a731f99b</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.7ea73d015c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>83ceec89776109ac</t>
-  </si>
-  <si>
-    <t>31/03/2025T09:23:46Z</t>
-  </si>
-  <si>
-    <t>7a17fa6e56d51c2e</t>
-  </si>
-  <si>
-    <t>31/03/2025T09:26:44Z</t>
-  </si>
-  <si>
     <t>50c491c405701913</t>
   </si>
   <si>
@@ -2185,6 +2170,24 @@
   </si>
   <si>
     <t>01/04/2025T11:59:07Z</t>
+  </si>
+  <si>
+    <t>18b3c9d88a33cee0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.68e95e5553^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>04/04/2025T15:12:30Z</t>
+  </si>
+  <si>
+    <t>342fdb32110ddb31</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.e681f9ecb1ccad05edb23f4c98320d091eeee432aed80b37f5b54e49a3393d42.32f4851efe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>04/04/2025T15:16:03Z</t>
   </si>
 </sst>
 </file>
@@ -4645,10 +4648,10 @@
   <dimension ref="A1:W779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G152" sqref="G152"/>
+      <selection pane="bottomRight" activeCell="G220" sqref="G220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10265,13 +10268,13 @@
         <v>45748</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="I151" s="33" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J151" s="74" t="s">
         <v>87</v>
@@ -10313,16 +10316,16 @@
         <v>452</v>
       </c>
       <c r="F152" s="32">
-        <v>45747</v>
+        <v>45751</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I152" s="33" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J152" s="74" t="s">
         <v>87</v>
@@ -12469,16 +12472,16 @@
         <v>482</v>
       </c>
       <c r="F196" s="32">
-        <v>45747</v>
+        <v>45751</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H196" s="33" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I196" s="33" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="J196" s="74" t="s">
         <v>87</v>
@@ -19753,15 +19756,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20023,27 +20023,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20068,9 +20062,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>